--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Участники</t>
   </si>
@@ -66,6 +66,9 @@
   </si>
   <si>
     <t>Спортсмен 10</t>
+  </si>
+  <si>
+    <t>тест</t>
   </si>
 </sst>
 </file>
@@ -349,11 +352,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="156530128"/>
-        <c:axId val="156539376"/>
+        <c:axId val="-889822608"/>
+        <c:axId val="-889825872"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="156530128"/>
+        <c:axId val="-889822608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -456,7 +459,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="156539376"/>
+        <c:crossAx val="-889825872"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -464,7 +467,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="156539376"/>
+        <c:axId val="-889825872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -515,7 +518,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="156530128"/>
+        <c:crossAx val="-889822608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1405,10 +1408,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1589,6 +1592,11 @@
       <c r="D11" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
